--- a/Lab05/Data.xlsx
+++ b/Lab05/Data.xlsx
@@ -16,16 +16,6 @@
     <sheet name="ToF Range Test" sheetId="4" r:id="rId2"/>
     <sheet name="Prox_sensor" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">ToF_sensor!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">ToF_sensor!$A$3:$A$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">ToF_sensor!$B$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">ToF_sensor!$B$3:$B$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">ToF_sensor!$C$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">ToF_sensor!$C$3:$C$26</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">ToF_sensor!$D$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">ToF_sensor!$D$3:$D$26</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,6 +211,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -230,9 +226,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -241,9 +234,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4966,11 +4956,11 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2">
         <v>43</v>
@@ -4989,15 +4979,15 @@
       <c r="D3" s="4">
         <v>46</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="6">
         <f>(B3-$A3)/$A3</f>
         <v>3.5</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:G18" si="0">(C3-$A3)/$A3</f>
         <v>3.2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
@@ -5019,15 +5009,15 @@
       <c r="D4" s="4">
         <v>30</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="6">
         <f t="shared" ref="E4:E26" si="1">(B4-$A4)/$A4</f>
         <v>-0.05</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>-0.85</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -5049,15 +5039,15 @@
       <c r="D5" s="4">
         <v>39</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>-0.36666666666666664</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -5079,15 +5069,15 @@
       <c r="D6" s="4">
         <v>50</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>-0.3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -5109,15 +5099,15 @@
       <c r="D7" s="4">
         <v>66</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="6">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
@@ -5139,15 +5129,15 @@
       <c r="D8" s="4">
         <v>67</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="6">
         <f>(C8-$A8)/$A8</f>
         <v>-0.15</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>0.11666666666666667</v>
       </c>
@@ -5169,15 +5159,15 @@
       <c r="D9" s="4">
         <v>78</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
         <v>0.12857142857142856</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>-0.15714285714285714</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>0.11428571428571428</v>
       </c>
@@ -5199,15 +5189,15 @@
       <c r="D10" s="4">
         <v>89</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>0.1125</v>
       </c>
@@ -5229,15 +5219,15 @@
       <c r="D11" s="4">
         <v>98</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>8.8888888888888892E-2</v>
       </c>
@@ -5259,15 +5249,15 @@
       <c r="D12" s="4">
         <v>106</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
@@ -5289,15 +5279,15 @@
       <c r="D13" s="4">
         <v>116</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="6">
         <f t="shared" si="1"/>
         <v>2.7272727272727271E-2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>-9.0909090909090905E-3</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="6">
         <f t="shared" si="0"/>
         <v>5.4545454545454543E-2</v>
       </c>
@@ -5319,15 +5309,15 @@
       <c r="D14" s="4">
         <v>125</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="6">
         <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>-1.6666666666666666E-2</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="6">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5349,15 +5339,15 @@
       <c r="D15" s="4">
         <v>130</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>-3.8461538461538464E-2</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5379,15 +5369,15 @@
       <c r="D16" s="4">
         <v>136</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>-3.5714285714285712E-2</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="6">
         <f t="shared" si="0"/>
         <v>-2.8571428571428571E-2</v>
       </c>
@@ -5409,15 +5399,15 @@
       <c r="D17" s="4">
         <v>140</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="6">
         <f t="shared" si="1"/>
         <v>-6.6666666666666671E-3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>-0.04</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="6">
         <f t="shared" si="0"/>
         <v>-6.6666666666666666E-2</v>
       </c>
@@ -5439,15 +5429,15 @@
       <c r="D18" s="4">
         <v>142</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="6">
         <f t="shared" si="1"/>
         <v>-1.2500000000000001E-2</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>-6.25E-2</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="6">
         <f t="shared" si="0"/>
         <v>-0.1125</v>
       </c>
@@ -5469,15 +5459,15 @@
       <c r="D19" s="4">
         <v>144</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
         <v>-1.7647058823529412E-2</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="6">
         <f t="shared" ref="F19:F26" si="2">(C19-$A19)/$A19</f>
         <v>-7.6470588235294124E-2</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="6">
         <f t="shared" ref="G19:G26" si="3">(D19-$A19)/$A19</f>
         <v>-0.15294117647058825</v>
       </c>
@@ -5499,15 +5489,15 @@
       <c r="D20" s="4">
         <v>145</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="6">
         <f t="shared" si="1"/>
         <v>-2.7777777777777776E-2</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
         <v>-8.3333333333333329E-2</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="6">
         <f t="shared" si="3"/>
         <v>-0.19444444444444445</v>
       </c>
@@ -5529,15 +5519,15 @@
       <c r="D21" s="4">
         <v>147</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="6">
         <f t="shared" si="1"/>
         <v>-3.6842105263157891E-2</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="6">
         <f t="shared" si="2"/>
         <v>-8.4210526315789472E-2</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="6">
         <f t="shared" si="3"/>
         <v>-0.22631578947368422</v>
       </c>
@@ -5559,15 +5549,15 @@
       <c r="D22" s="4">
         <v>149</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="6">
         <f t="shared" si="1"/>
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="6">
         <f t="shared" si="2"/>
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="6">
         <f>(D22-$A22)/$A22</f>
         <v>-0.255</v>
       </c>
@@ -5577,10 +5567,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+      <c r="A23" s="5">
         <v>254</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="5">
         <v>268</v>
       </c>
       <c r="C23" s="2">
@@ -5589,15 +5579,15 @@
       <c r="D23" s="2">
         <v>280</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="6">
         <f t="shared" si="1"/>
         <v>5.5118110236220472E-2</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="6">
         <f t="shared" si="2"/>
         <v>3.1496062992125984E-2</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="6">
         <f t="shared" si="3"/>
         <v>0.10236220472440945</v>
       </c>
@@ -5619,15 +5609,15 @@
       <c r="D24" s="2">
         <v>320</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="6">
         <f t="shared" si="1"/>
         <v>2.6902887139107573E-2</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="6">
         <f t="shared" si="2"/>
         <v>1.7060367454068203E-2</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="6">
         <f t="shared" si="3"/>
         <v>4.9868766404199433E-2</v>
       </c>
@@ -5640,7 +5630,7 @@
       <c r="A25" s="2">
         <v>457.2</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="5">
         <v>471</v>
       </c>
       <c r="C25" s="2">
@@ -5649,15 +5639,15 @@
       <c r="D25" s="2">
         <v>483</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="6">
         <f t="shared" si="1"/>
         <v>3.0183727034120762E-2</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="6">
         <f t="shared" si="2"/>
         <v>1.7060367454068266E-2</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <f t="shared" si="3"/>
         <v>5.6430446194225749E-2</v>
       </c>
@@ -5679,15 +5669,15 @@
       <c r="D26" s="2">
         <v>636</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="6">
         <f t="shared" si="1"/>
         <v>3.346456692913382E-2</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="6">
         <f t="shared" si="2"/>
         <v>5.5774278215222723E-3</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="6">
         <f t="shared" si="3"/>
         <v>4.3307086614173186E-2</v>
       </c>
@@ -5791,14 +5781,14 @@
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="2"/>
       <c r="I34">
         <v>46</v>
@@ -8364,14 +8354,14 @@
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="2"/>
       <c r="I23" s="4">
         <v>630</v>

--- a/Lab05/Data.xlsx
+++ b/Lab05/Data.xlsx
@@ -297,7 +297,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1168,7 +1167,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1286,7 +1284,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7744,10 +7741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A164" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J188" sqref="J188:J189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10510,6 +10507,12 @@
       <c r="H188" s="2"/>
       <c r="I188" s="4">
         <v>629.74193549999995</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I189">
+        <f>STDEV(I2:I187)</f>
+        <v>0.76268694022393135</v>
       </c>
     </row>
   </sheetData>
